--- a/Spring_memo.xlsx
+++ b/Spring_memo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\昭弘\Documents\memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFA79BB-E216-46B6-983A-719D621737D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9D646D-B913-4553-AAEE-18473146BB83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="555" windowWidth="19650" windowHeight="10050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>■template</t>
     <phoneticPr fontId="1"/>
@@ -579,6 +579,215 @@
     </rPh>
     <rPh sb="156" eb="158">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Web</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sequence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面IDチェックは必須(Spring云々ではなくWeb applicationにおいて必須)</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒッス</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ウンヌン</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【理由】
+多重post抑止はどんなapplicationでもmustである。
+画面でhistory backの抑止をしても、URLをcopyし再送信は可能。
+また、2重ログインを抑止しても、同一ブラウザ内でURLをcopyすることにより、同一ブラウザ内で同時に複数画面のoperationができてしまう。画面IDチェックを実施することにより複数画面で最も進んでいるoperation以外の画面operationを無効にして、多重postを抑止できる。
+【方法】
+1.各画面にIDを設定し、その値を各画面にhiddenで保持。
+2. 画面遷移時に呼ばれるmethodのvalidation後に、session内で保持している画面IDとrequest parameterの画面IDが等しいかチェックし、等しくなければエラー。等しければ当該requestで表示する画面のIDでsessionを更新。</t>
+    <rPh sb="1" eb="3">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="130" eb="132">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="132" eb="134">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="152" eb="154">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="191" eb="193">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="194" eb="196">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="206" eb="208">
+      <t>ムコウ</t>
+    </rPh>
+    <rPh sb="212" eb="214">
+      <t>タジュウ</t>
+    </rPh>
+    <rPh sb="219" eb="221">
+      <t>ヨクシ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="234" eb="235">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="235" eb="237">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="241" eb="243">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="247" eb="248">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="249" eb="250">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="250" eb="252">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="260" eb="262">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="267" eb="269">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="269" eb="271">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="273" eb="274">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="294" eb="295">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="304" eb="305">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="306" eb="308">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="312" eb="314">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="335" eb="337">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="340" eb="341">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="350" eb="351">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="361" eb="362">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="366" eb="368">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="376" eb="378">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="380" eb="382">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="394" eb="396">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sequenceチェック(当該methodに遷移しうる画面IDがrequest parameterにあればOKとするチェック)では、同一ブラウザ内での複数operationが抑止できないので、必ず、現在正とするoperationを一つに絞り、その画面IDをsessionで保持しrequest parameterと照合するという形のチェックにしないといけない。</t>
+    <rPh sb="13" eb="15">
+      <t>トウガイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>ヨクシ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>シボ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="136" eb="138">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>ショウゴウ</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>カタチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1161,13 +1370,25 @@
         <v>44187</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="B9" s="4"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+    <row r="9" spans="1:8" ht="262.5">
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8">
